--- a/degree_project/double_degree.xlsx
+++ b/degree_project/double_degree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - UNSW\Coding\degree_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - UNSW\Coding\python\degree_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34D7D14-F2EF-47DF-8C9D-E91903EA255A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EE67A3-ADD9-432E-BCF0-FAAE8B6F6AA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{558CF5F6-9FE6-461B-8166-445D4136A79F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{558CF5F6-9FE6-461B-8166-445D4136A79F}"/>
   </bookViews>
   <sheets>
     <sheet name="Double degree breakdown" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
   <si>
     <t>Comp Sci (AI)</t>
   </si>
@@ -235,6 +235,48 @@
   </si>
   <si>
     <t>PHYS1121</t>
+  </si>
+  <si>
+    <t>SEM 2 2021</t>
+  </si>
+  <si>
+    <t>Sem 3 2021</t>
+  </si>
+  <si>
+    <t>Summer 2022</t>
+  </si>
+  <si>
+    <t>Sem 1 2022</t>
+  </si>
+  <si>
+    <t>Sem 2 2022</t>
+  </si>
+  <si>
+    <t>Sem 3 2022</t>
+  </si>
+  <si>
+    <t>Summer 2023</t>
+  </si>
+  <si>
+    <t>Sem 1 2023</t>
+  </si>
+  <si>
+    <t>Sem 2 2023</t>
+  </si>
+  <si>
+    <t>Sem 3 2023</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
+  </si>
+  <si>
+    <t>Sem 1 2024</t>
+  </si>
+  <si>
+    <t>Sem 2 2024</t>
+  </si>
+  <si>
+    <t>subjects extra</t>
   </si>
 </sst>
 </file>
@@ -286,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -472,13 +514,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -651,6 +708,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -968,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E63208-CBDB-4149-B826-CD468DA39630}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +1047,7 @@
     <col min="4" max="4" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" customWidth="1"/>
     <col min="14" max="14" width="48" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -997,6 +1064,9 @@
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
+      <c r="N1" s="73" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1023,6 +1093,12 @@
       <c r="J2" s="40" t="s">
         <v>7</v>
       </c>
+      <c r="N2" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
       <c r="T2" s="39"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1054,6 +1130,12 @@
       <c r="J3" t="s">
         <v>11</v>
       </c>
+      <c r="N3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -1083,8 +1165,14 @@
         <v>11</v>
       </c>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -1112,8 +1200,9 @@
         <v>11</v>
       </c>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
@@ -1140,6 +1229,9 @@
       <c r="J6" t="s">
         <v>19</v>
       </c>
+      <c r="N6" s="71" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -1170,6 +1262,12 @@
       <c r="J7" t="s">
         <v>9</v>
       </c>
+      <c r="N7" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1199,6 +1297,12 @@
       </c>
       <c r="J8" t="s">
         <v>11</v>
+      </c>
+      <c r="N8" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1214,6 +1318,12 @@
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
+      <c r="N9" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="65" t="s">
@@ -1226,8 +1336,9 @@
       <c r="F10" s="65"/>
       <c r="G10" s="65"/>
       <c r="H10" s="65"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>1</v>
       </c>
@@ -1246,6 +1357,9 @@
       <c r="F11" s="69"/>
       <c r="G11" s="69"/>
       <c r="H11" s="69"/>
+      <c r="N11" s="71" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -1273,8 +1387,14 @@
       <c r="I12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -1301,8 +1421,9 @@
       <c r="J13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1330,6 +1451,9 @@
       </c>
       <c r="J14" t="s">
         <v>11</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1359,6 +1483,12 @@
       <c r="J15" t="s">
         <v>11</v>
       </c>
+      <c r="N15" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1389,8 +1519,14 @@
       <c r="J16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
@@ -1419,8 +1555,14 @@
       <c r="J17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="52" t="s">
         <v>1</v>
       </c>
@@ -1443,8 +1585,9 @@
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>12</v>
       </c>
@@ -1474,8 +1617,11 @@
       <c r="K19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>12</v>
       </c>
@@ -1500,8 +1646,14 @@
       <c r="J20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
@@ -1530,8 +1682,14 @@
       <c r="J21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -1558,8 +1716,14 @@
       <c r="J22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>12</v>
       </c>
@@ -1589,8 +1753,9 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>12</v>
       </c>
@@ -1615,8 +1780,11 @@
       <c r="J24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24" s="71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>1</v>
       </c>
@@ -1639,8 +1807,14 @@
       <c r="J25" s="44"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N25" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>12</v>
       </c>
@@ -1665,8 +1839,14 @@
       <c r="J26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>12</v>
       </c>
@@ -1691,8 +1871,9 @@
       <c r="J27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
@@ -1717,8 +1898,9 @@
       <c r="K28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>12</v>
       </c>
@@ -1749,7 +1931,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="52" t="s">
         <v>1</v>
       </c>
@@ -1772,8 +1954,11 @@
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N30" s="71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>12</v>
       </c>
@@ -1804,8 +1989,9 @@
       <c r="L31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>12</v>
       </c>
@@ -1836,8 +2022,11 @@
       <c r="L32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N32" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>12</v>
       </c>
@@ -1868,8 +2057,14 @@
       <c r="L33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
         <v>64</v>
       </c>
@@ -1880,8 +2075,9 @@
       <c r="F34" s="65"/>
       <c r="G34" s="65"/>
       <c r="H34" s="65"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
@@ -1900,8 +2096,12 @@
       <c r="F35" s="67"/>
       <c r="G35" s="67"/>
       <c r="H35" s="67"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>80</v>
+      </c>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
@@ -1924,8 +2124,23 @@
       <c r="H36" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f>SUM(C3:C8,C12:C17,C19:C24,C26:C29,C31:C33,C36:C39)</f>
+        <v>174</v>
+      </c>
+      <c r="J36">
+        <f>240-I36</f>
+        <v>66</v>
+      </c>
+      <c r="K36">
+        <f>J36/6</f>
+        <v>11</v>
+      </c>
+      <c r="N36" s="71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
@@ -1948,8 +2163,14 @@
       <c r="H37" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -1973,7 +2194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>12</v>
       </c>
@@ -1995,6 +2216,66 @@
       </c>
       <c r="H39" s="34">
         <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N40" s="71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N44" s="71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N47" s="71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>49</v>
+      </c>
+      <c r="O49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N52" s="71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N54" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O54">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2020,15 +2301,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A4227B39984C04C949C95A3097E3A91" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f808552df58183fc3b45a3f9fd0f5b30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="355ea21e-25c8-4c13-8910-c0dacf419f8b" xmlns:ns4="73f7fd46-c04d-424c-bbe2-38018b760b3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b5d3328d796df11ed1d4577d74efc81" ns3:_="" ns4:_="">
     <xsd:import namespace="355ea21e-25c8-4c13-8910-c0dacf419f8b"/>
@@ -2251,15 +2523,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0A141FF-B570-40F6-BA32-569726DB02D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC626AF7-E2AB-4997-99C7-E3F357384CAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2276,4 +2549,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0A141FF-B570-40F6-BA32-569726DB02D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/degree_project/double_degree.xlsx
+++ b/degree_project/double_degree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - UNSW\Coding\python\degree_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5320158_ad_unsw_edu_au/Documents/Coding/python/degree_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EE67A3-ADD9-432E-BCF0-FAAE8B6F6AA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2652BCED-20E5-4016-A3B4-A6B438CD2326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B77E26D8-7A76-4DD9-8172-051F6514A8B2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{558CF5F6-9FE6-461B-8166-445D4136A79F}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{558CF5F6-9FE6-461B-8166-445D4136A79F}"/>
   </bookViews>
   <sheets>
     <sheet name="Double degree breakdown" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="81">
   <si>
     <t>Comp Sci (AI)</t>
   </si>
@@ -315,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +325,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -535,7 +553,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,14 +703,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,16 +739,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1035,10 +1056,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E63208-CBDB-4149-B826-CD468DA39630}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1067,7 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" customWidth="1"/>
     <col min="14" max="14" width="48" bestFit="1" customWidth="1"/>
@@ -1054,17 +1075,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="N1" s="73" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="N1" s="66" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1081,19 +1102,19 @@
       <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="40" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="63" t="s">
         <v>36</v>
       </c>
       <c r="O2">
@@ -1229,7 +1250,7 @@
       <c r="J6" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="64" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1298,7 +1319,7 @@
       <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="72" t="s">
+      <c r="N8" s="65" t="s">
         <v>19</v>
       </c>
       <c r="O8">
@@ -1326,16 +1347,16 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1351,13 +1372,13 @@
       <c r="D11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="N11" s="71" t="s">
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="N11" s="64" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1387,8 +1408,8 @@
       <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="60" t="s">
-        <v>36</v>
+      <c r="N12" s="68" t="s">
+        <v>42</v>
       </c>
       <c r="O12">
         <v>6</v>
@@ -1452,7 +1473,7 @@
       <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="71" t="s">
+      <c r="N14" s="64" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1555,8 +1576,8 @@
       <c r="J17" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="60" t="s">
-        <v>39</v>
+      <c r="N17" s="71" t="s">
+        <v>55</v>
       </c>
       <c r="O17">
         <v>6</v>
@@ -1572,15 +1593,15 @@
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
@@ -1594,7 +1615,7 @@
       <c r="B19" s="29">
         <v>2</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="61">
         <v>6</v>
       </c>
       <c r="D19" s="59" t="s">
@@ -1617,7 +1638,7 @@
       <c r="K19" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="71" t="s">
+      <c r="N19" s="64" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1628,7 +1649,7 @@
       <c r="B20" s="31">
         <v>2</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="61">
         <v>6</v>
       </c>
       <c r="D20" s="60" t="s">
@@ -1660,7 +1681,7 @@
       <c r="B21" s="31">
         <v>2</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="61">
         <v>6</v>
       </c>
       <c r="D21" s="60" t="s">
@@ -1682,8 +1703,8 @@
       <c r="J21" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="61" t="s">
-        <v>42</v>
+      <c r="N21" s="60" t="s">
+        <v>39</v>
       </c>
       <c r="O21">
         <v>6</v>
@@ -1696,7 +1717,7 @@
       <c r="B22" s="31">
         <v>2</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="61">
         <v>6</v>
       </c>
       <c r="D22" s="60" t="s">
@@ -1730,10 +1751,10 @@
       <c r="B23" s="31">
         <v>2</v>
       </c>
-      <c r="C23" s="63">
-        <v>6</v>
-      </c>
-      <c r="D23" s="61" t="s">
+      <c r="C23" s="61">
+        <v>6</v>
+      </c>
+      <c r="D23" s="68" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="17">
@@ -1753,7 +1774,6 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
@@ -1762,10 +1782,10 @@
       <c r="B24" s="32">
         <v>2</v>
       </c>
-      <c r="C24" s="63">
-        <v>6</v>
-      </c>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="61">
+        <v>6</v>
+      </c>
+      <c r="D24" s="70" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="26"/>
@@ -1780,7 +1800,7 @@
       <c r="J24" t="s">
         <v>15</v>
       </c>
-      <c r="N24" s="71" t="s">
+      <c r="N24" s="64" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1797,17 +1817,17 @@
       <c r="D25" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
-      <c r="N25" s="62" t="s">
+      <c r="N25" s="70" t="s">
         <v>45</v>
       </c>
       <c r="O25">
@@ -1868,7 +1888,7 @@
       <c r="I27" t="s">
         <v>50</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="71" t="s">
         <v>51</v>
       </c>
       <c r="N27" s="1"/>
@@ -1895,7 +1915,7 @@
       <c r="I28" t="s">
         <v>53</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="69" t="s">
         <v>54</v>
       </c>
       <c r="N28" s="1"/>
@@ -1910,7 +1930,7 @@
       <c r="C29" s="33">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="71" t="s">
         <v>55</v>
       </c>
       <c r="E29" s="27"/>
@@ -1944,17 +1964,17 @@
       <c r="D30" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
-      <c r="N30" s="71" t="s">
+      <c r="N30" s="64" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1983,10 +2003,10 @@
       <c r="J31" t="s">
         <v>39</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="71" t="s">
         <v>51</v>
       </c>
       <c r="N31" s="1"/>
@@ -2016,13 +2036,13 @@
       <c r="J32" t="s">
         <v>35</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="N32" s="71" t="s">
+      <c r="N32" s="64" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2048,34 +2068,39 @@
       <c r="I33" t="s">
         <v>62</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="71" t="s">
         <v>51</v>
       </c>
       <c r="N33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O33">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="N34" s="1"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="N34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
@@ -2090,12 +2115,12 @@
       <c r="D35" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="67" t="s">
+      <c r="E35" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
       <c r="K35" t="s">
         <v>80</v>
       </c>
@@ -2136,7 +2161,7 @@
         <f>J36/6</f>
         <v>11</v>
       </c>
-      <c r="N36" s="71" t="s">
+      <c r="N36" s="64" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2193,8 +2218,22 @@
       <c r="H38" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f>SUM(C12:C33,C36:C39)</f>
+        <v>138</v>
+      </c>
+      <c r="J38">
+        <f>SUM(C3:C8)</f>
+        <v>36</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>12</v>
       </c>
@@ -2217,65 +2256,49 @@
       <c r="H39" s="34">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N40" s="71" t="s">
+      <c r="N39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="64" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N41" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <f>168-138</f>
+        <v>30</v>
+      </c>
+      <c r="J43">
+        <f>96-J38</f>
+        <v>60</v>
+      </c>
+    </row>
     <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N44" s="71" t="s">
+      <c r="N44" s="64" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N47" s="71" t="s">
+      <c r="N47" s="64" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N49" t="s">
-        <v>49</v>
-      </c>
-      <c r="O49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N52" s="71" t="s">
+    <row r="51" spans="14:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="14:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N52" s="64" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N53" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N54" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O54">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2301,6 +2324,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A4227B39984C04C949C95A3097E3A91" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f808552df58183fc3b45a3f9fd0f5b30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="355ea21e-25c8-4c13-8910-c0dacf419f8b" xmlns:ns4="73f7fd46-c04d-424c-bbe2-38018b760b3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b5d3328d796df11ed1d4577d74efc81" ns3:_="" ns4:_="">
     <xsd:import namespace="355ea21e-25c8-4c13-8910-c0dacf419f8b"/>
@@ -2523,16 +2555,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0A141FF-B570-40F6-BA32-569726DB02D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC626AF7-E2AB-4997-99C7-E3F357384CAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2549,12 +2580,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0A141FF-B570-40F6-BA32-569726DB02D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/degree_project/double_degree.xlsx
+++ b/degree_project/double_degree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5320158_ad_unsw_edu_au/Documents/Coding/python/degree_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{7308F265-1FF1-4846-9F54-90D07137996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A1747EC-381B-4BD6-AE6A-0CCDECD1895C}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{7308F265-1FF1-4846-9F54-90D07137996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED5ED15-6447-4B43-AFF4-3A0317D480A8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{558CF5F6-9FE6-461B-8166-445D4136A79F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{558CF5F6-9FE6-461B-8166-445D4136A79F}"/>
   </bookViews>
   <sheets>
     <sheet name="Double degree breakdown" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -90,15 +91,15 @@
     <t>MMAN1130</t>
   </si>
   <si>
+    <t>COMP1531</t>
+  </si>
+  <si>
+    <t>(Software Engineering Fundamentals)</t>
+  </si>
+  <si>
     <t>Not Completed</t>
   </si>
   <si>
-    <t>COMP1531</t>
-  </si>
-  <si>
-    <t>(Software Engineering Fundamentals)</t>
-  </si>
-  <si>
     <t>COMP2511</t>
   </si>
   <si>
@@ -135,40 +136,40 @@
     <t xml:space="preserve">MMAN2300 </t>
   </si>
   <si>
+    <t>(Electrical Circuit Fundamentals)</t>
+  </si>
+  <si>
+    <t>ENGG1000</t>
+  </si>
+  <si>
+    <t>(Introduction to Engineering Design and Innovation)</t>
+  </si>
+  <si>
+    <t>Sem 1 2022</t>
+  </si>
+  <si>
+    <t>ENGG1300</t>
+  </si>
+  <si>
+    <t>(Engineering Mechanics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEC2141 </t>
+  </si>
+  <si>
+    <t>(Design and Manufacturing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMAN3200 </t>
+  </si>
+  <si>
+    <t>DESN2000</t>
+  </si>
+  <si>
+    <t>(Engineering Design and Professional Practice) enroll T2</t>
+  </si>
+  <si>
     <t>Doing</t>
-  </si>
-  <si>
-    <t>(Electrical Circuit Fundamentals)</t>
-  </si>
-  <si>
-    <t>ENGG1000</t>
-  </si>
-  <si>
-    <t>(Introduction to Engineering Design and Innovation)</t>
-  </si>
-  <si>
-    <t>Sem 1 2022</t>
-  </si>
-  <si>
-    <t>ENGG1300</t>
-  </si>
-  <si>
-    <t>(Engineering Mechanics)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELEC2141 </t>
-  </si>
-  <si>
-    <t>(Design and Manufacturing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMAN3200 </t>
-  </si>
-  <si>
-    <t>DESN2000</t>
-  </si>
-  <si>
-    <t>(Engineering Design and Professional Practice) enroll T2</t>
   </si>
   <si>
     <t>(Digital Circuit Design)</t>
@@ -1347,7 +1348,7 @@
   <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,16 +1499,16 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="37">
+        <v>1</v>
+      </c>
+      <c r="C5" s="40">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="37">
-        <v>1</v>
-      </c>
-      <c r="C5" s="40">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5">
@@ -1517,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -1528,7 +1529,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="37">
         <v>1</v>
@@ -1559,7 +1560,7 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7" s="37">
         <v>1</v>
@@ -1598,7 +1599,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="38">
         <v>1</v>
@@ -1817,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -1838,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="12">
@@ -1849,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -1857,10 +1858,10 @@
       <c r="L15" s="61"/>
       <c r="M15" s="60"/>
       <c r="N15" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T15" s="61"/>
     </row>
@@ -1875,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1888,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -1896,13 +1897,13 @@
       <c r="L16" s="61"/>
       <c r="M16" s="60"/>
       <c r="N16" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O16">
         <v>6</v>
       </c>
       <c r="Q16" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R16">
         <v>6</v>
@@ -1933,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
@@ -1941,13 +1942,13 @@
       <c r="L17" s="61"/>
       <c r="M17" s="60"/>
       <c r="N17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O17">
         <v>6</v>
       </c>
       <c r="Q17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R17">
         <v>6</v>
@@ -1979,7 +1980,7 @@
       <c r="L18" s="76"/>
       <c r="M18" s="60"/>
       <c r="N18" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18">
         <v>6</v>
@@ -1994,7 +1995,7 @@
     </row>
     <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="14">
         <v>2</v>
@@ -2003,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -2014,13 +2015,13 @@
         <v>3</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L19" s="61"/>
       <c r="M19" s="60"/>
@@ -2029,7 +2030,7 @@
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B20" s="12">
         <v>2</v>
@@ -2038,7 +2039,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12">
@@ -2064,7 +2065,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="12">
         <v>2</v>
@@ -2087,7 +2088,7 @@
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L21" s="61"/>
       <c r="M21" s="60"/>
@@ -2098,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="Q21" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R21">
         <v>6</v>
@@ -2107,7 +2108,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="12">
         <v>2</v>
@@ -2150,7 +2151,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B23" s="12">
         <v>2</v>
@@ -2171,7 +2172,7 @@
         <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
         <v>29</v>
@@ -2179,7 +2180,7 @@
       <c r="L23" s="61"/>
       <c r="M23" s="60"/>
       <c r="N23" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O23">
         <v>6</v>
@@ -2188,7 +2189,7 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B24" s="19">
         <v>2</v>
@@ -2209,7 +2210,7 @@
         <v>56</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L24" s="61"/>
       <c r="M24" s="60"/>
@@ -2249,7 +2250,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B26" s="17">
         <v>3</v>
@@ -2290,7 +2291,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B27" s="17">
         <v>3</v>
@@ -2331,7 +2332,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B28" s="17">
         <v>3</v>
@@ -2361,7 +2362,7 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B29" s="22">
         <v>3</v>
@@ -2370,7 +2371,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="19">
@@ -2387,7 +2388,7 @@
         <v>29</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L29" s="61"/>
       <c r="M29" s="60"/>
@@ -2432,7 +2433,7 @@
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B31" s="21">
         <v>4</v>
@@ -2478,7 +2479,7 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B32" s="17">
         <v>4</v>
@@ -2518,7 +2519,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B33" s="22">
         <v>4</v>
@@ -2555,7 +2556,7 @@
         <v>6</v>
       </c>
       <c r="Q33" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R33">
         <v>6</v>
@@ -2731,7 +2732,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B39" s="18">
         <v>1</v>
@@ -2873,7 +2874,7 @@
     </row>
     <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15">
@@ -2897,7 +2898,7 @@
     </row>
     <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18">
@@ -2933,7 +2934,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18">
@@ -3003,7 +3004,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49" s="11">
         <v>1</v>
@@ -3035,7 +3036,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B50" s="15">
         <v>1</v>
@@ -3070,7 +3071,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B51" s="15">
         <v>1</v>
@@ -3104,7 +3105,7 @@
     </row>
     <row r="52" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B52" s="15">
         <v>1</v>
@@ -3135,7 +3136,7 @@
     </row>
     <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B53" s="15">
         <v>1</v>
@@ -3171,7 +3172,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B54" s="15">
         <v>1</v>
@@ -3210,7 +3211,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B55" s="15">
         <v>1</v>
@@ -3229,7 +3230,7 @@
         <v>103</v>
       </c>
       <c r="J55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K55" t="s">
         <v>23</v>
@@ -3246,7 +3247,7 @@
     </row>
     <row r="56" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B56" s="18">
         <v>1</v>
@@ -3303,7 +3304,7 @@
       </c>
       <c r="J59">
         <f>SUMIF(A3:A8,"Completed",C3:C8)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K59" s="61">
         <f>SUMIF(A36:A37,"Completed",C36:C37)</f>
@@ -3318,7 +3319,7 @@
       </c>
       <c r="J60">
         <f>J58-(J59+K59)</f>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K60" s="61"/>
       <c r="M60" s="60"/>
@@ -3330,7 +3331,7 @@
       </c>
       <c r="J61">
         <f>J60/6</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K61" s="61"/>
       <c r="M61" s="60"/>
@@ -3379,7 +3380,7 @@
       </c>
       <c r="J65">
         <f>SUMIF(A12:A42,"Completed",C12:C42)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="K65" s="61"/>
       <c r="M65" s="60"/>
@@ -3391,7 +3392,7 @@
       </c>
       <c r="J66">
         <f>J64-J65</f>
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K66" s="61"/>
       <c r="M66" s="60"/>
@@ -3403,7 +3404,7 @@
       </c>
       <c r="J67">
         <f>J66/6</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K67" s="61"/>
       <c r="M67" s="60"/>
@@ -3447,7 +3448,7 @@
       </c>
       <c r="J71">
         <f>SUMIF(A3:A61,"Completed",C3:C62)</f>
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="K71" s="61"/>
       <c r="M71" s="68"/>
@@ -3475,7 +3476,7 @@
       </c>
       <c r="J73">
         <f>SUM(J71:J72)</f>
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="K73" s="61"/>
     </row>
@@ -3485,7 +3486,7 @@
       </c>
       <c r="J74">
         <f>K70-J73</f>
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="K74" s="61"/>
     </row>
@@ -3495,7 +3496,7 @@
       </c>
       <c r="J75">
         <f>J74/6</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K75" s="61"/>
       <c r="N75">
@@ -3508,7 +3509,7 @@
       </c>
       <c r="J76">
         <f>K70-J71</f>
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="K76" s="61"/>
     </row>
@@ -3541,7 +3542,7 @@
       </c>
       <c r="J80">
         <f>SUMIF(A3:A63,"Completed",C3:C64)</f>
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="K80" s="61"/>
     </row>
@@ -3561,7 +3562,7 @@
       </c>
       <c r="J82">
         <f>SUM(J80:J81)</f>
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="K82" s="61"/>
     </row>
@@ -3571,7 +3572,7 @@
       </c>
       <c r="J83">
         <f>J79-J82</f>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="K83" s="61"/>
     </row>
@@ -3581,7 +3582,7 @@
       </c>
       <c r="J84">
         <f>J83/6</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K84" s="61"/>
     </row>
@@ -3591,7 +3592,7 @@
       </c>
       <c r="J85" s="69">
         <f>J79-J80</f>
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="K85" s="70"/>
     </row>
@@ -3634,15 +3635,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A4227B39984C04C949C95A3097E3A91" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f808552df58183fc3b45a3f9fd0f5b30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="355ea21e-25c8-4c13-8910-c0dacf419f8b" xmlns:ns4="73f7fd46-c04d-424c-bbe2-38018b760b3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b5d3328d796df11ed1d4577d74efc81" ns3:_="" ns4:_="">
     <xsd:import namespace="355ea21e-25c8-4c13-8910-c0dacf419f8b"/>
@@ -3865,15 +3857,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0A141FF-B570-40F6-BA32-569726DB02D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC626AF7-E2AB-4997-99C7-E3F357384CAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3890,4 +3883,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0A141FF-B570-40F6-BA32-569726DB02D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>